--- a/Projeto Controle de Estoque Simplificado.xlsx
+++ b/Projeto Controle de Estoque Simplificado.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>PRODUTO</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>Saldo</t>
+  </si>
+  <si>
+    <t>Lápis grafite técnico 6B</t>
   </si>
 </sst>
 </file>
@@ -148,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,9 +167,7 @@
       <top style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -175,9 +176,7 @@
       <top style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -188,58 +187,14 @@
       <top style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -252,6 +207,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -267,52 +250,17 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -361,6 +309,426 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="7" tint="0.39994506668294322"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.749961851863155"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -368,22 +736,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -393,20 +746,70 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -416,71 +819,14 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
         <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
+          <color theme="2" tint="-0.499984740745262"/>
         </bottom>
       </border>
     </dxf>
@@ -501,13 +847,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -535,72 +874,6 @@
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-0.499984740745262"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <bottom style="thin">
           <color theme="2" tint="-0.499984740745262"/>
@@ -636,6 +909,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -645,6 +923,780 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Cadastros!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SALDO</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0%" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Cadastros!$A$4:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Caneta esferográfica azul</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Caneta esferográfica preta</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lápis grafite técnico 6B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cadastros!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC90-495B-AEDA-6D32983D0A8B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="45"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -870,13 +1922,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:colOff>2163300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4305300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -887,8 +1939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10639425" y="9524"/>
-          <a:ext cx="1619250" cy="552451"/>
+          <a:off x="10583400" y="9524"/>
+          <a:ext cx="1684800" cy="552451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -954,13 +2006,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>914400</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
+      <xdr:colOff>723899</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
@@ -971,7 +2023,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4457700" y="1352550"/>
+          <a:off x="4676775" y="1352550"/>
           <a:ext cx="2952749" cy="1066800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1378,13 +2430,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:colOff>2162175</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4305300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1395,8 +2447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10639425" y="9524"/>
-          <a:ext cx="1619250" cy="552451"/>
+          <a:off x="10582275" y="9524"/>
+          <a:ext cx="1685925" cy="552451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1454,6 +2506,157 @@
           <a:endParaRPr lang="pt-BR" sz="1400">
             <a:effectLst/>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3771900</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>323850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CaixaDeTexto 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505826" y="685800"/>
+          <a:ext cx="3762374" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1400" b="1"/>
+            <a:t>Composição do saldo atual de estoque</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3552825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Retângulo 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="657225"/>
+          <a:ext cx="3171825" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1615,13 +2818,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>219074</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>427574</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>7575</xdr:rowOff>
     </xdr:to>
@@ -1634,8 +2837,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="152400"/>
-          <a:ext cx="2305050" cy="360000"/>
+          <a:off x="5029199" y="152400"/>
+          <a:ext cx="2304000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="snip2SameRect">
           <a:avLst>
@@ -1687,13 +2890,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2686050</xdr:colOff>
+      <xdr:colOff>2163300</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>4305300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -1704,8 +2907,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10639425" y="9524"/>
-          <a:ext cx="1619250" cy="552451"/>
+          <a:off x="10583400" y="9524"/>
+          <a:ext cx="1684800" cy="552451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1772,17 +2975,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbCadastro" displayName="tbCadastro" ref="A3:F5" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
-  <autoFilter ref="A3:F5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tbCadastro" displayName="tbCadastro" ref="A3:F6" totalsRowShown="0" headerRowDxfId="54" headerRowBorderDxfId="53">
+  <autoFilter ref="A3:F6"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="PRODUTO" dataDxfId="18"/>
-    <tableColumn id="2" name="MEDIDA" dataDxfId="17"/>
-    <tableColumn id="3" name="ESTOQUE_x000a_MÍNIMO" dataDxfId="16"/>
-    <tableColumn id="4" name="ESTOQUE_x000a_MÁXIMO" dataDxfId="15"/>
-    <tableColumn id="5" name="SALDO" dataDxfId="6">
-      <calculatedColumnFormula>VLOOKUP(tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[],5,0)</calculatedColumnFormula>
+    <tableColumn id="1" name="PRODUTO"/>
+    <tableColumn id="2" name="MEDIDA"/>
+    <tableColumn id="3" name="ESTOQUE_x000a_MÍNIMO"/>
+    <tableColumn id="4" name="ESTOQUE_x000a_MÁXIMO"/>
+    <tableColumn id="5" name="SALDO" dataDxfId="41">
+      <calculatedColumnFormula>SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Saída])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="AVISOS" dataDxfId="5">
+    <tableColumn id="6" name="AVISOS" dataDxfId="40">
       <calculatedColumnFormula>IF(tbCadastro[[#This Row],[SALDO]]&lt;tbCadastro[[#This Row],[ESTOQUE
 MÍNIMO]],"Solicitar nova compra!",IF(tbCadastro[[#This Row],[SALDO]]&gt;tbCadastro[[#This Row],[ESTOQUE
 MÁXIMO]],"Priorizar venda!",""))</calculatedColumnFormula>
@@ -1793,15 +2996,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tbLancamentos" displayName="tbLancamentos" ref="A3:E7" totalsRowCount="1" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
-  <autoFilter ref="A3:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tbLancamentos" displayName="tbLancamentos" ref="A3:E9" totalsRowCount="1" headerRowDxfId="52" headerRowBorderDxfId="50" tableBorderDxfId="51">
+  <autoFilter ref="A3:E8"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="PRODUTO" dataDxfId="11" totalsRowDxfId="4"/>
-    <tableColumn id="2" name="Data" totalsRowFunction="count" dataDxfId="10" totalsRowDxfId="3"/>
-    <tableColumn id="3" name="Entrada" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Saída" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="1"/>
-    <tableColumn id="5" name="Saldo" dataDxfId="7" totalsRowDxfId="0">
-      <calculatedColumnFormula>SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Saída])</calculatedColumnFormula>
+    <tableColumn id="1" name="PRODUTO" totalsRowDxfId="4"/>
+    <tableColumn id="2" name="Data" totalsRowFunction="count" dataDxfId="49" totalsRowDxfId="3"/>
+    <tableColumn id="3" name="Entrada" totalsRowFunction="sum" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Saída" totalsRowFunction="sum" totalsRowDxfId="1"/>
+    <tableColumn id="5" name="Saldo" totalsRowFunction="count" dataDxfId="48" totalsRowDxfId="0">
+      <calculatedColumnFormula>SUMIFS(tbLancamentos[Entrada],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])-SUMIFS(tbLancamentos[Saída],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
@@ -2074,14 +3277,15 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="64.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -2114,17 +3318,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="64.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -2138,43 +3343,43 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>15</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <v>150</v>
       </c>
-      <c r="E4" s="12">
-        <f>VLOOKUP(tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[],5,0)</f>
+      <c r="E4" s="6">
+        <f>SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Saída])</f>
         <v>430</v>
       </c>
-      <c r="F4" s="31" t="str">
+      <c r="F4" s="23" t="str">
         <f>IF(tbCadastro[[#This Row],[SALDO]]&lt;tbCadastro[[#This Row],[ESTOQUE
 MÍNIMO]],"Solicitar nova compra!",IF(tbCadastro[[#This Row],[SALDO]]&gt;tbCadastro[[#This Row],[ESTOQUE
 MÁXIMO]],"Priorizar venda!",""))</f>
@@ -2182,48 +3387,74 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15">
-        <v>15</v>
-      </c>
-      <c r="D5" s="15">
-        <v>150</v>
-      </c>
-      <c r="E5" s="16">
-        <f>VLOOKUP(tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[],5,0)</f>
-        <v>42</v>
-      </c>
-      <c r="F5" s="17" t="str">
+      <c r="C5" s="5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5">
+        <v>300</v>
+      </c>
+      <c r="E5" s="6">
+        <f>SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Saída])</f>
+        <v>85</v>
+      </c>
+      <c r="F5" s="23" t="str">
         <f>IF(tbCadastro[[#This Row],[SALDO]]&lt;tbCadastro[[#This Row],[ESTOQUE
 MÍNIMO]],"Solicitar nova compra!",IF(tbCadastro[[#This Row],[SALDO]]&gt;tbCadastro[[#This Row],[ESTOQUE
 MÁXIMO]],"Priorizar venda!",""))</f>
-        <v/>
+        <v>Solicitar nova compra!</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5">
+        <v>100</v>
+      </c>
+      <c r="E6" s="15">
+        <f>SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbCadastro[[#This Row],[PRODUTO]],tbLancamentos[Saída])</f>
+        <v>10</v>
+      </c>
+      <c r="F6" s="24" t="str">
+        <f>IF(tbCadastro[[#This Row],[SALDO]]&lt;tbCadastro[[#This Row],[ESTOQUE
+MÍNIMO]],"Solicitar nova compra!",IF(tbCadastro[[#This Row],[SALDO]]&gt;tbCadastro[[#This Row],[ESTOQUE
+MÁXIMO]],"Priorizar venda!",""))</f>
+        <v>Solicitar nova compra!</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="3"/>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
     </row>
-    <row r="17" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="5:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F4:F6">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Solicitar nova compra!">
+      <formula>NOT(ISERROR(SEARCH("Solicitar nova compra!",F4)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Priorizar venda!">
+      <formula>NOT(ISERROR(SEARCH("Priorizar venda!",F4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2235,145 +3466,160 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.7109375" customWidth="1"/>
-    <col min="2" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="64.7109375" customWidth="1"/>
+    <col min="2" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="57.7109375" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="19"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="9">
         <v>45272</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="5">
         <v>400</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="5">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
-        <f>SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Saída])</f>
-        <v>430</v>
-      </c>
-      <c r="F4" s="20"/>
+      <c r="E4" s="6">
+        <f>SUMIFS(tbLancamentos[Entrada],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])-SUMIFS(tbLancamentos[Saída],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])</f>
+        <v>390</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="9">
         <v>45275</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="5">
         <v>50</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="5">
         <v>10</v>
       </c>
-      <c r="E5" s="30">
-        <f>SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Saída])</f>
+      <c r="E5" s="15">
+        <f>SUMIFS(tbLancamentos[Entrada],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])-SUMIFS(tbLancamentos[Saída],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])</f>
         <v>430</v>
       </c>
-      <c r="F5" s="20"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="9">
         <v>45287</v>
       </c>
       <c r="C6" s="5">
         <v>50</v>
       </c>
       <c r="D6" s="5">
-        <v>8</v>
-      </c>
-      <c r="E6" s="18">
-        <f>SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Entrada])-SUMIF(tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Saída])</f>
-        <v>42</v>
-      </c>
-      <c r="F6" s="20"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
+        <f>SUMIFS(tbLancamentos[Entrada],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])-SUMIFS(tbLancamentos[Saída],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])</f>
+        <v>45</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17">
+        <v>45290</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7" s="16">
+        <f>SUMIFS(tbLancamentos[Entrada],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])-SUMIFS(tbLancamentos[Saída],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="17">
+        <v>45288</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8" s="16">
+        <f>SUMIFS(tbLancamentos[Entrada],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])-SUMIFS(tbLancamentos[Saída],tbLancamentos[PRODUTO],tbLancamentos[[#This Row],[PRODUTO]],tbLancamentos[Data],"&lt;="&amp;tbLancamentos[[#This Row],[Data]])</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="10">
         <f>SUBTOTAL(103,tbLancamentos[Data])</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5">
         <f>SUBTOTAL(109,tbLancamentos[Entrada])</f>
-        <v>500</v>
-      </c>
-      <c r="D7" s="5">
+        <v>600</v>
+      </c>
+      <c r="D9" s="5">
         <f>SUBTOTAL(109,tbLancamentos[Saída])</f>
-        <v>28</v>
-      </c>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E20" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="E9" s="6">
+        <f>SUBTOTAL(103,tbLancamentos[Saldo])</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E4:E8">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A6">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="A4:A8">
       <formula1>ColunaProdutos</formula1>
     </dataValidation>
   </dataValidations>
